--- a/xauusd_4_hourly.xlsx
+++ b/xauusd_4_hourly.xlsx
@@ -17,22 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="589">
   <si>
-    <t> Date </t>
-  </si>
-  <si>
-    <t>Open </t>
-  </si>
-  <si>
-    <t>High </t>
-  </si>
-  <si>
-    <t>Low </t>
-  </si>
-  <si>
-    <t>Close </t>
-  </si>
-  <si>
-    <t>Change (Pips) </t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Change (Pips)</t>
   </si>
   <si>
     <t>Change (%)</t>
@@ -56,7 +56,7 @@
     <t>Avg Max.</t>
   </si>
   <si>
-    <t>Nov 13, 2014 21:00 </t>
+    <t>Nov 13, 2014 21:00</t>
   </si>
   <si>
     <t>+0.23%</t>
@@ -65,16 +65,16 @@
     <t>Avg. Min.</t>
   </si>
   <si>
-    <t>Nov 13, 2014 17:00 </t>
+    <t>Nov 13, 2014 17:00</t>
   </si>
   <si>
     <t>-0.18%</t>
   </si>
   <si>
-    <t>count max </t>
-  </si>
-  <si>
-    <t>Nov 13, 2014 13:00 </t>
+    <t>count max</t>
+  </si>
+  <si>
+    <t>Nov 13, 2014 13:00</t>
   </si>
   <si>
     <t>-0.14%</t>
@@ -83,1720 +83,1722 @@
     <t>count min</t>
   </si>
   <si>
-    <t>Nov 13, 2014 09:00 </t>
+    <t>Nov 13, 2014 09:00</t>
   </si>
   <si>
     <t>+0.32%</t>
   </si>
   <si>
-    <t>Nov 13, 2014 05:00 </t>
-  </si>
-  <si>
-    <t>Nov 13, 2014 04:00 </t>
+    <t>Nov 13, 2014 05:00</t>
+  </si>
+  <si>
+    <t>Nov 13, 2014 04:00</t>
   </si>
   <si>
     <t>+0.00%</t>
   </si>
   <si>
-    <t>Nov 13, 2014 01:00 </t>
+    <t>Nov 13, 2014 01:00</t>
   </si>
   <si>
     <t>-0.06%</t>
   </si>
   <si>
-    <t>Nov 12, 2014 21:00 </t>
+    <t>Nov 12, 2014 21:00</t>
   </si>
   <si>
     <t>+0.20%</t>
   </si>
   <si>
-    <t>Nov 12, 2014 17:00 </t>
+    <t>Nov 12, 2014 17:00</t>
   </si>
   <si>
     <t>-0.44%</t>
   </si>
   <si>
-    <t>Nov 12, 2014 13:00 </t>
+    <t>Nov 12, 2014 13:00</t>
   </si>
   <si>
     <t>+0.17%</t>
   </si>
   <si>
-    <t>Nov 12, 2014 09:00 </t>
+    <t>Nov 12, 2014 09:00</t>
   </si>
   <si>
     <t>-0.32%</t>
   </si>
   <si>
-    <t>Nov 12, 2014 05:00 </t>
-  </si>
-  <si>
-    <t>Nov 12, 2014 01:00 </t>
+    <t>Nov 12, 2014 05:00</t>
+  </si>
+  <si>
+    <t>Nov 12, 2014 01:00</t>
   </si>
   <si>
     <t>+0.05%</t>
   </si>
   <si>
-    <t>Nov 11, 2014 21:00 </t>
-  </si>
-  <si>
-    <t>Nov 11, 2014 17:00 </t>
+    <t>Nov 11, 2014 21:00</t>
+  </si>
+  <si>
+    <t>Nov 11, 2014 17:00</t>
   </si>
   <si>
     <t>+0.69%</t>
   </si>
   <si>
-    <t>Nov 11, 2014 13:00 </t>
+    <t>Nov 11, 2014 13:00</t>
   </si>
   <si>
     <t>+0.45%</t>
   </si>
   <si>
-    <t>Nov 11, 2014 09:00 </t>
+    <t>Nov 11, 2014 09:00</t>
   </si>
   <si>
     <t>+0.07%</t>
   </si>
   <si>
-    <t>Nov 11, 2014 05:00 </t>
+    <t>Nov 11, 2014 05:00</t>
   </si>
   <si>
     <t>-0.39%</t>
   </si>
   <si>
-    <t>Nov 11, 2014 01:00 </t>
+    <t>Nov 11, 2014 01:00</t>
   </si>
   <si>
     <t>+0.28%</t>
   </si>
   <si>
-    <t>Nov 10, 2014 21:00 </t>
+    <t>Nov 10, 2014 21:00</t>
   </si>
   <si>
     <t>-0.50%</t>
   </si>
   <si>
-    <t>Nov 10, 2014 17:00 </t>
+    <t>Nov 10, 2014 17:00</t>
   </si>
   <si>
     <t>-0.55%</t>
   </si>
   <si>
-    <t>Nov 10, 2014 13:00 </t>
+    <t>Nov 10, 2014 13:00</t>
   </si>
   <si>
     <t>-0.76%</t>
   </si>
   <si>
-    <t>Nov 10, 2014 09:00 </t>
+    <t>Nov 10, 2014 09:00</t>
   </si>
   <si>
     <t>+0.01%</t>
   </si>
   <si>
-    <t>Nov 10, 2014 05:00 </t>
+    <t>Nov 10, 2014 05:00</t>
   </si>
   <si>
     <t>-0.09%</t>
   </si>
   <si>
-    <t>Nov 10, 2014 01:00 </t>
+    <t>Nov 10, 2014 01:00</t>
   </si>
   <si>
     <t>-0.36%</t>
   </si>
   <si>
-    <t>Nov 07, 2014 21:00 </t>
+    <t>Nov 07, 2014 21:00</t>
   </si>
   <si>
     <t>+0.47%</t>
   </si>
   <si>
-    <t>Nov 07, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Nov 07, 2014 17:00 </t>
+    <t>Nov 07, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Nov 07, 2014 17:00</t>
   </si>
   <si>
     <t>+1.41%</t>
   </si>
   <si>
-    <t>Nov 07, 2014 13:00 </t>
+    <t>Nov 07, 2014 13:00</t>
   </si>
   <si>
     <t>+0.78%</t>
   </si>
   <si>
-    <t>Nov 07, 2014 09:00 </t>
+    <t>Nov 07, 2014 09:00</t>
   </si>
   <si>
     <t>+0.35%</t>
   </si>
   <si>
-    <t>Nov 07, 2014 05:00 </t>
+    <t>Nov 07, 2014 05:00</t>
   </si>
   <si>
     <t>+0.08%</t>
   </si>
   <si>
-    <t>Nov 07, 2014 00:00 </t>
+    <t>Nov 07, 2014 00:00</t>
   </si>
   <si>
     <t>-0.07%</t>
   </si>
   <si>
-    <t>Nov 06, 2014 20:00 </t>
+    <t>Nov 06, 2014 20:00</t>
   </si>
   <si>
     <t>-0.22%</t>
   </si>
   <si>
-    <t>Nov 06, 2014 16:00 </t>
+    <t>Nov 06, 2014 16:00</t>
   </si>
   <si>
     <t>+0.04%</t>
   </si>
   <si>
-    <t>Nov 06, 2014 12:00 </t>
+    <t>Nov 06, 2014 12:00</t>
   </si>
   <si>
     <t>-0.05%</t>
   </si>
   <si>
-    <t>Nov 06, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Nov 06, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Nov 06, 2014 00:00 </t>
+    <t>Nov 06, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Nov 06, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Nov 06, 2014 00:00</t>
   </si>
   <si>
     <t>+0.24%</t>
   </si>
   <si>
-    <t>Nov 05, 2014 20:00 </t>
+    <t>Nov 05, 2014 20:00</t>
   </si>
   <si>
     <t>-0.64%</t>
   </si>
   <si>
-    <t>Nov 05, 2014 16:00 </t>
+    <t>Nov 05, 2014 16:00</t>
   </si>
   <si>
     <t>+0.21%</t>
   </si>
   <si>
-    <t>Nov 05, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Nov 05, 2014 08:00 </t>
+    <t>Nov 05, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Nov 05, 2014 08:00</t>
   </si>
   <si>
     <t>-0.77%</t>
   </si>
   <si>
-    <t>Nov 05, 2014 04:00 </t>
+    <t>Nov 05, 2014 04:00</t>
   </si>
   <si>
     <t>-1.08%</t>
   </si>
   <si>
-    <t>Nov 05, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Nov 04, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Nov 04, 2014 16:00 </t>
+    <t>Nov 05, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Nov 04, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Nov 04, 2014 16:00</t>
   </si>
   <si>
     <t>-0.01%</t>
   </si>
   <si>
-    <t>Nov 04, 2014 12:00 </t>
+    <t>Nov 04, 2014 12:00</t>
   </si>
   <si>
     <t>+0.14%</t>
   </si>
   <si>
-    <t>Nov 04, 2014 08:00 </t>
+    <t>Nov 04, 2014 08:00</t>
   </si>
   <si>
     <t>+0.06%</t>
   </si>
   <si>
-    <t>Nov 04, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Nov 04, 2014 00:00 </t>
+    <t>Nov 04, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Nov 04, 2014 00:00</t>
   </si>
   <si>
     <t>+0.11%</t>
   </si>
   <si>
-    <t>Nov 03, 2014 20:00 </t>
+    <t>Nov 03, 2014 20:00</t>
   </si>
   <si>
     <t>-0.58%</t>
   </si>
   <si>
-    <t>Nov 03, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Nov 03, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Nov 03, 2014 08:00 </t>
+    <t>Nov 03, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Nov 03, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Nov 03, 2014 08:00</t>
   </si>
   <si>
     <t>+0.12%</t>
   </si>
   <si>
-    <t>Nov 03, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Nov 03, 2014 00:00 </t>
+    <t>Nov 03, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Nov 03, 2014 00:00</t>
   </si>
   <si>
     <t>-0.02%</t>
   </si>
   <si>
-    <t>Oct 31, 2014 20:00 </t>
+    <t>Oct 31, 2014 20:00</t>
   </si>
   <si>
     <t>+0.33%</t>
   </si>
   <si>
-    <t>Oct 31, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 31, 2014 12:00 </t>
+    <t>Oct 31, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 31, 2014 12:00</t>
   </si>
   <si>
     <t>-1.01%</t>
   </si>
   <si>
-    <t>Oct 31, 2014 08:00 </t>
+    <t>Oct 31, 2014 08:00</t>
   </si>
   <si>
     <t>-1.58%</t>
   </si>
   <si>
-    <t>Oct 31, 2014 04:00 </t>
+    <t>Oct 31, 2014 04:00</t>
   </si>
   <si>
     <t>-0.48%</t>
   </si>
   <si>
-    <t>Oct 31, 2014 00:00 </t>
+    <t>Oct 31, 2014 00:00</t>
   </si>
   <si>
     <t>+0.27%</t>
   </si>
   <si>
-    <t>Oct 30, 2014 20:00 </t>
+    <t>Oct 30, 2014 20:00</t>
   </si>
   <si>
     <t>-0.15%</t>
   </si>
   <si>
-    <t>Oct 30, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 30, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 30, 2014 08:00 </t>
+    <t>Oct 30, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 30, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 30, 2014 08:00</t>
   </si>
   <si>
     <t>-0.72%</t>
   </si>
   <si>
-    <t>Oct 30, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 30, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 29, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 29, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 29, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 29, 2014 08:00 </t>
+    <t>Oct 30, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 30, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 29, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 29, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 29, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 29, 2014 08:00</t>
   </si>
   <si>
     <t>-0.08%</t>
   </si>
   <si>
-    <t>Oct 29, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 29, 2014 00:00 </t>
+    <t>Oct 29, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 29, 2014 00:00</t>
   </si>
   <si>
     <t>+0.26%</t>
   </si>
   <si>
-    <t>Oct 28, 2014 20:00 </t>
+    <t>Oct 28, 2014 20:00</t>
   </si>
   <si>
     <t>-0.04%</t>
   </si>
   <si>
-    <t>Oct 28, 2014 16:00 </t>
+    <t>Oct 28, 2014 16:00</t>
   </si>
   <si>
     <t>-0.33%</t>
   </si>
   <si>
-    <t>Oct 28, 2014 12:00 </t>
+    <t>Oct 28, 2014 12:00</t>
   </si>
   <si>
     <t>+0.30%</t>
   </si>
   <si>
-    <t>Oct 28, 2014 08:00 </t>
+    <t>Oct 28, 2014 08:00</t>
   </si>
   <si>
     <t>+0.10%</t>
   </si>
   <si>
-    <t>Oct 28, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 28, 2014 00:00 </t>
+    <t>Oct 28, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 28, 2014 00:00</t>
   </si>
   <si>
     <t>+0.02%</t>
   </si>
   <si>
-    <t>Oct 27, 2014 20:00 </t>
+    <t>Oct 27, 2014 20:00</t>
   </si>
   <si>
     <t>-0.25%</t>
   </si>
   <si>
-    <t>Oct 27, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 27, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 27, 2014 08:00 </t>
+    <t>Oct 27, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 27, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 27, 2014 08:00</t>
   </si>
   <si>
     <t>-0.10%</t>
   </si>
   <si>
-    <t>Oct 27, 2014 04:00 </t>
+    <t>Oct 27, 2014 04:00</t>
   </si>
   <si>
     <t>+0.03%</t>
   </si>
   <si>
-    <t>Oct 27, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 24, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 24, 2014 16:00 </t>
+    <t>Oct 27, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 24, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 24, 2014 16:00</t>
   </si>
   <si>
     <t>-0.11%</t>
   </si>
   <si>
-    <t>Oct 24, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 24, 2014 08:00 </t>
+    <t>Oct 24, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 24, 2014 08:00</t>
   </si>
   <si>
     <t>+0.19%</t>
   </si>
   <si>
-    <t>Oct 24, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 24, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 23, 2014 20:00 </t>
+    <t>Oct 24, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 24, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 23, 2014 20:00</t>
   </si>
   <si>
     <t>+0.25%</t>
   </si>
   <si>
-    <t>Oct 23, 2014 16:00 </t>
+    <t>Oct 23, 2014 16:00</t>
   </si>
   <si>
     <t>-0.49%</t>
   </si>
   <si>
-    <t>Oct 23, 2014 12:00 </t>
+    <t>Oct 23, 2014 12:00</t>
   </si>
   <si>
     <t>-0.45%</t>
   </si>
   <si>
-    <t>Oct 23, 2014 08:00 </t>
+    <t>Oct 23, 2014 08:00</t>
   </si>
   <si>
     <t>-0.24%</t>
   </si>
   <si>
-    <t>Oct 23, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 23, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 22, 2014 20:00 </t>
+    <t>Oct 23, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 23, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 22, 2014 20:00</t>
   </si>
   <si>
     <t>-0.30%</t>
   </si>
   <si>
-    <t>Oct 22, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 22, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 22, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 22, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 22, 2014 00:00 </t>
+    <t>Oct 22, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 22, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 22, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 22, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 22, 2014 00:00</t>
   </si>
   <si>
     <t>-0.12%</t>
   </si>
   <si>
-    <t>Oct 21, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 21, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 21, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 21, 2014 08:00 </t>
+    <t>Oct 21, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 21, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 21, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 21, 2014 08:00</t>
   </si>
   <si>
     <t>+0.15%</t>
   </si>
   <si>
-    <t>Oct 21, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 21, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 20, 2014 20:00 </t>
+    <t>Oct 21, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 21, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 20, 2014 20:00</t>
   </si>
   <si>
     <t>+0.16%</t>
   </si>
   <si>
-    <t>Oct 20, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 20, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 20, 2014 08:00 </t>
+    <t>Oct 20, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 20, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 20, 2014 08:00</t>
   </si>
   <si>
     <t>+0.46%</t>
   </si>
   <si>
-    <t>Oct 20, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 20, 2014 00:00 </t>
+    <t>Oct 20, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 20, 2014 00:00</t>
   </si>
   <si>
     <t>-0.26%</t>
   </si>
   <si>
-    <t>Oct 17, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 17, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 17, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 17, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 17, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 17, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 16, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 16, 2014 16:00 </t>
+    <t>Oct 17, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 17, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 17, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 17, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 17, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 17, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 16, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 16, 2014 16:00</t>
   </si>
   <si>
     <t>+0.41%</t>
   </si>
   <si>
-    <t>Oct 16, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 16, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 16, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 16, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 15, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 15, 2014 16:00 </t>
+    <t>Oct 16, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 16, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 16, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 16, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 15, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 15, 2014 16:00</t>
   </si>
   <si>
     <t>+0.62%</t>
   </si>
   <si>
-    <t>Oct 15, 2014 12:00 </t>
+    <t>Oct 15, 2014 12:00</t>
   </si>
   <si>
     <t>+0.97%</t>
   </si>
   <si>
-    <t>Oct 15, 2014 08:00 </t>
+    <t>Oct 15, 2014 08:00</t>
   </si>
   <si>
     <t>-0.23%</t>
   </si>
   <si>
-    <t>Oct 15, 2014 04:00 </t>
+    <t>Oct 15, 2014 04:00</t>
   </si>
   <si>
     <t>-0.03%</t>
   </si>
   <si>
-    <t>Oct 15, 2014 00:00 </t>
+    <t>Oct 15, 2014 00:00</t>
   </si>
   <si>
     <t>-0.28%</t>
   </si>
   <si>
-    <t>Oct 14, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 14, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 14, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 14, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 14, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 14, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 13, 2014 20:00 </t>
+    <t>Oct 14, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 14, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 14, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 14, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 14, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 14, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 13, 2014 20:00</t>
   </si>
   <si>
     <t>+0.58%</t>
   </si>
   <si>
-    <t>Oct 13, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 13, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 13, 2014 08:00 </t>
+    <t>Oct 13, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 13, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 13, 2014 08:00</t>
   </si>
   <si>
     <t>-0.31%</t>
   </si>
   <si>
-    <t>Oct 13, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 13, 2014 00:00 </t>
+    <t>Oct 13, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 13, 2014 00:00</t>
   </si>
   <si>
     <t>+0.57%</t>
   </si>
   <si>
-    <t>Oct 10, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 10, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 10, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 10, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 10, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 10, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 09, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 09, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 09, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 09, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 09, 2014 04:00 </t>
+    <t>Oct 10, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 10, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 10, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 10, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 10, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 10, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 09, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 09, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 09, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 09, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 09, 2014 04:00</t>
   </si>
   <si>
     <t>+0.29%</t>
   </si>
   <si>
-    <t>Oct 09, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 08, 2014 20:00 </t>
+    <t>Oct 09, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 08, 2014 20:00</t>
   </si>
   <si>
     <t>+1.11%</t>
   </si>
   <si>
-    <t>Oct 08, 2014 16:00 </t>
+    <t>Oct 08, 2014 16:00</t>
   </si>
   <si>
     <t>-0.80%</t>
   </si>
   <si>
-    <t>Oct 08, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 08, 2014 08:00 </t>
+    <t>Oct 08, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 08, 2014 08:00</t>
   </si>
   <si>
     <t>+0.56%</t>
   </si>
   <si>
-    <t>Oct 08, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 08, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 07, 2014 20:00 </t>
+    <t>Oct 08, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 08, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 07, 2014 20:00</t>
   </si>
   <si>
     <t>-0.21%</t>
   </si>
   <si>
-    <t>Oct 07, 2014 16:00 </t>
+    <t>Oct 07, 2014 16:00</t>
   </si>
   <si>
     <t>+0.44%</t>
   </si>
   <si>
-    <t>Oct 07, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 07, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 07, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 07, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 06, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 06, 2014 16:00 </t>
+    <t>Oct 07, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 07, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 07, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 07, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 06, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 06, 2014 16:00</t>
   </si>
   <si>
     <t>+0.86%</t>
   </si>
   <si>
-    <t>Oct 06, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 06, 2014 08:00 </t>
+    <t>Oct 06, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 06, 2014 08:00</t>
   </si>
   <si>
     <t>+0.49%</t>
   </si>
   <si>
-    <t>Oct 06, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 06, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 03, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 03, 2014 16:00 </t>
+    <t>Oct 06, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 06, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 03, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 03, 2014 16:00</t>
   </si>
   <si>
     <t>-0.84%</t>
   </si>
   <si>
-    <t>Oct 03, 2014 12:00 </t>
+    <t>Oct 03, 2014 12:00</t>
   </si>
   <si>
     <t>-0.42%</t>
   </si>
   <si>
-    <t>Oct 03, 2014 08:00 </t>
+    <t>Oct 03, 2014 08:00</t>
   </si>
   <si>
     <t>-0.40%</t>
   </si>
   <si>
-    <t>Oct 03, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 03, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 02, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 02, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 02, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Oct 02, 2014 08:00 </t>
+    <t>Oct 03, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 03, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 02, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 02, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 02, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Oct 02, 2014 08:00</t>
   </si>
   <si>
     <t>-0.20%</t>
   </si>
   <si>
-    <t>Oct 02, 2014 04:00 </t>
+    <t>Oct 02, 2014 04:00</t>
   </si>
   <si>
     <t>+0.31%</t>
   </si>
   <si>
-    <t>Oct 02, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Oct 01, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Oct 01, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Oct 01, 2014 12:00 </t>
+    <t>Oct 02, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Oct 01, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Oct 01, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Oct 01, 2014 12:00</t>
   </si>
   <si>
     <t>+0.60%</t>
   </si>
   <si>
-    <t>Oct 01, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Oct 01, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Oct 01, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 30, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 30, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 30, 2014 12:00 </t>
+    <t>Oct 01, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Oct 01, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Oct 01, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 30, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 30, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 30, 2014 12:00</t>
   </si>
   <si>
     <t>-0.90%</t>
   </si>
   <si>
-    <t>Sep 30, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 30, 2014 04:00 </t>
+    <t>Sep 30, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 30, 2014 04:00</t>
   </si>
   <si>
     <t>+0.09%</t>
   </si>
   <si>
-    <t>Sep 30, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 29, 2014 20:00 </t>
+    <t>Sep 30, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 29, 2014 20:00</t>
   </si>
   <si>
     <t>-0.16%</t>
   </si>
   <si>
-    <t>Sep 29, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 29, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 29, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 29, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 29, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 26, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 26, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 26, 2014 12:00 </t>
+    <t>Sep 29, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 29, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 29, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 29, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 29, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 26, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 26, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 26, 2014 12:00</t>
   </si>
   <si>
     <t>-0.68%</t>
   </si>
   <si>
-    <t>Sep 26, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 26, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 26, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 25, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 25, 2014 16:00 </t>
+    <t>Sep 26, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 26, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 26, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 25, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 25, 2014 16:00</t>
   </si>
   <si>
     <t>+0.67%</t>
   </si>
   <si>
-    <t>Sep 25, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 25, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 25, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 25, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 24, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 24, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 24, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 24, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 24, 2014 04:00 </t>
+    <t>Sep 25, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 25, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 25, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 25, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 24, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 24, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 24, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 24, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 24, 2014 04:00</t>
   </si>
   <si>
     <t>+0.18%</t>
   </si>
   <si>
-    <t>Sep 24, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 23, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 23, 2014 16:00 </t>
+    <t>Sep 24, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 23, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 23, 2014 16:00</t>
   </si>
   <si>
     <t>-0.37%</t>
   </si>
   <si>
-    <t>Sep 23, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 23, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 23, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 23, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 22, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 22, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 22, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 22, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 22, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 22, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 19, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 19, 2014 16:00 </t>
+    <t>Sep 23, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 23, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 23, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 23, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 22, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 22, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 22, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 22, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 22, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 22, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 19, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 19, 2014 16:00</t>
   </si>
   <si>
     <t>-0.63%</t>
   </si>
   <si>
-    <t>Sep 19, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 19, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 19, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 19, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 18, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 18, 2014 16:00 </t>
+    <t>Sep 19, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 19, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 19, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 19, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 18, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 18, 2014 16:00</t>
   </si>
   <si>
     <t>+0.48%</t>
   </si>
   <si>
-    <t>Sep 18, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 18, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 18, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 18, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 17, 2014 20:00 </t>
+    <t>Sep 18, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 18, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 18, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 18, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 17, 2014 20:00</t>
   </si>
   <si>
     <t>-1.03%</t>
   </si>
   <si>
-    <t>Sep 17, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 17, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 17, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 17, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 17, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 16, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 16, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 16, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 16, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 16, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 16, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 15, 2014 20:00 </t>
+    <t>Sep 17, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 17, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 17, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 17, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 17, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 16, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 16, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 16, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 16, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 16, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 16, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 15, 2014 20:00</t>
   </si>
   <si>
     <t>-0.13%</t>
   </si>
   <si>
-    <t>Sep 15, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 15, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 15, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 15, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 15, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 12, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 12, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 12, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 12, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 12, 2014 04:00 </t>
+    <t>Sep 15, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 15, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 15, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 15, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 15, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 12, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 12, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 12, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 12, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 12, 2014 04:00</t>
   </si>
   <si>
     <t>-0.38%</t>
   </si>
   <si>
-    <t>Sep 12, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 11, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 11, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 11, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 11, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 11, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 11, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 10, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 10, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 10, 2014 12:00 </t>
+    <t>Sep 12, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 11, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 11, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 11, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 11, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 11, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 11, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 10, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 10, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 10, 2014 12:00</t>
   </si>
   <si>
     <t>-0.34%</t>
   </si>
   <si>
-    <t>Sep 10, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 10, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 10, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 09, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 09, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 09, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 09, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 09, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 09, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 08, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 08, 2014 16:00 </t>
+    <t>Sep 10, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 10, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 10, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 09, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 09, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 09, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 09, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 09, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 09, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 08, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 08, 2014 16:00</t>
   </si>
   <si>
     <t>-0.99%</t>
   </si>
   <si>
-    <t>Sep 08, 2014 12:00 </t>
+    <t>Sep 08, 2014 12:00</t>
   </si>
   <si>
     <t>-0.17%</t>
   </si>
   <si>
-    <t>Sep 08, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 08, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 08, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 05, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 05, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 05, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 05, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 05, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 05, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 04, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 04, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 04, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 04, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 04, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 04, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 03, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 03, 2014 16:00 </t>
+    <t>Sep 08, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 08, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 08, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 05, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 05, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 05, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 05, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 05, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 05, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 04, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 04, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 04, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 04, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 04, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 04, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 03, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 03, 2014 16:00</t>
   </si>
   <si>
     <t>+0.22%</t>
   </si>
   <si>
-    <t>Sep 03, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 03, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 03, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 03, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 02, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 02, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 02, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 02, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 02, 2014 04:00 </t>
+    <t>Sep 03, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 03, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 03, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 03, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 02, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 02, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 02, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 02, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 02, 2014 04:00</t>
   </si>
   <si>
     <t>-0.35%</t>
   </si>
   <si>
-    <t>Sep 02, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Sep 01, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Sep 01, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Sep 01, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Sep 01, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Sep 01, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Sep 01, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 29, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 29, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 29, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 29, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 29, 2014 04:00 </t>
+    <t>Sep 02, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Sep 01, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Sep 01, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Sep 01, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Sep 01, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Sep 01, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Sep 01, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 29, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 29, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 29, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 29, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 29, 2014 04:00</t>
   </si>
   <si>
     <t>-0.19%</t>
   </si>
   <si>
-    <t>Aug 29, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 28, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 28, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 28, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 28, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 28, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 28, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 27, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 27, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 27, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 27, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 27, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 27, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 26, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 26, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 26, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 26, 2014 08:00 </t>
+    <t>Aug 29, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 28, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 28, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 28, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 28, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 28, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 28, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 27, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 27, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 27, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 27, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 27, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 27, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 26, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 26, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 26, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 26, 2014 08:00</t>
   </si>
   <si>
     <t>+0.39%</t>
   </si>
   <si>
-    <t>Aug 26, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 26, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 25, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 25, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 25, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 25, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 25, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 25, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 22, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 22, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 22, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 22, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 22, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 22, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 21, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 21, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 21, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 21, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 21, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 21, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 20, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 20, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 20, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 20, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 20, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 20, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 19, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 19, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 19, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 19, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 19, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 19, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 00:00 </t>
+    <t>Aug 26, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 26, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 25, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 25, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 25, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 25, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 25, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 25, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 22, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 22, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 22, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 22, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 22, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 22, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 21, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 21, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 21, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 21, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 21, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 21, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 20, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 20, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 20, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 20, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 20, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 20, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 19, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 19, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 19, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 19, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 19, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 19, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 18, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 18, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 18, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 18, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 18, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 18, 2014 00:00</t>
   </si>
   <si>
     <t>-0.27%</t>
   </si>
   <si>
-    <t>Aug 15, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 15, 2014 16:00 </t>
+    <t>Aug 15, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 15, 2014 16:00</t>
   </si>
   <si>
     <t>+0.50%</t>
   </si>
   <si>
-    <t>Aug 15, 2014 12:00 </t>
+    <t>Aug 15, 2014 12:00</t>
   </si>
   <si>
     <t>-1.26%</t>
   </si>
   <si>
-    <t>Aug 15, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 15, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 15, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 14, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 14, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 14, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 14, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 14, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 14, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 13, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 13, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 13, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 13, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 13, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 13, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 12, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 12, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 12, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 12, 2014 08:00 </t>
+    <t>Aug 15, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 15, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 15, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 14, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 14, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 14, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 14, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 14, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 14, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 13, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 13, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 13, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 13, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 13, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 13, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 12, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 12, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 12, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 12, 2014 08:00</t>
   </si>
   <si>
     <t>+0.40%</t>
   </si>
   <si>
-    <t>Aug 12, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 12, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 11, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 11, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 11, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 11, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 11, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 11, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 08, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 08, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 08, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 08, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 08, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 08, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 07, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 07, 2014 16:00 </t>
+    <t>Aug 12, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 12, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 11, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 11, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 11, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 11, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 11, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 11, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 08, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 08, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 08, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 08, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 08, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 08, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 07, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 07, 2014 16:00</t>
   </si>
   <si>
     <t>+0.59%</t>
   </si>
   <si>
-    <t>Aug 07, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 07, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 07, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 07, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 06, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 06, 2014 16:00 </t>
+    <t>Aug 07, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 07, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 07, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 07, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 06, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 06, 2014 16:00</t>
   </si>
   <si>
     <t>+0.43%</t>
   </si>
   <si>
-    <t>Aug 06, 2014 12:00 </t>
+    <t>Aug 06, 2014 12:00</t>
   </si>
   <si>
     <t>+0.85%</t>
   </si>
   <si>
-    <t>Aug 06, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 06, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 06, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 05, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 05, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 05, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 05, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 05, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 05, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 04, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 04, 2014 16:00 </t>
-  </si>
-  <si>
-    <t>Aug 04, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 04, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 04, 2014 04:00 </t>
-  </si>
-  <si>
-    <t>Aug 04, 2014 00:00 </t>
-  </si>
-  <si>
-    <t>Aug 01, 2014 20:00 </t>
-  </si>
-  <si>
-    <t>Aug 01, 2014 16:00 </t>
+    <t>Aug 06, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 06, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 06, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 05, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 05, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 05, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 05, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 05, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 05, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 04, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 04, 2014 16:00</t>
+  </si>
+  <si>
+    <t>Aug 04, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 04, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 04, 2014 04:00</t>
+  </si>
+  <si>
+    <t>Aug 04, 2014 00:00</t>
+  </si>
+  <si>
+    <t>Aug 01, 2014 20:00</t>
+  </si>
+  <si>
+    <t>Aug 01, 2014 16:00</t>
   </si>
   <si>
     <t>+0.55%</t>
   </si>
   <si>
-    <t>Aug 01, 2014 12:00 </t>
-  </si>
-  <si>
-    <t>Aug 01, 2014 08:00 </t>
-  </si>
-  <si>
-    <t>Aug 01, 2014 04:00 </t>
+    <t>Aug 01, 2014 12:00</t>
+  </si>
+  <si>
+    <t>Aug 01, 2014 08:00</t>
+  </si>
+  <si>
+    <t>Aug 01, 2014 04:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1856,12 +1858,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1880,13 +1886,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O452"/>
+  <dimension ref="A1:S452"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1894,6 +1900,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8265306122449"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="7.82142857142857"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2195,6 +2202,14 @@
       <c r="O6" s="0" t="n">
         <v>311</v>
       </c>
+      <c r="P6" s="2" t="n">
+        <f aca="false">N6 / $O$3</f>
+        <v>0.993348115299335</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <f aca="false">O6 / $O$3</f>
+        <v>0.689578713968958</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2247,6 +2262,14 @@
       <c r="O7" s="0" t="n">
         <v>216</v>
       </c>
+      <c r="P7" s="2" t="n">
+        <f aca="false">N7 / $O$3</f>
+        <v>0.975609756097561</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <f aca="false">O7 / $O$3</f>
+        <v>0.478935698447894</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2299,6 +2322,22 @@
       <c r="O8" s="0" t="n">
         <v>141</v>
       </c>
+      <c r="P8" s="2" t="n">
+        <f aca="false">N8 / $O$3</f>
+        <v>0.904656319290466</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <f aca="false">O8 / $O$3</f>
+        <v>0.312638580931264</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <f aca="false">N8 / N6</f>
+        <v>0.910714285714286</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <f aca="false">O8 / O6</f>
+        <v>0.453376205787781</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2351,6 +2390,22 @@
       <c r="O9" s="0" t="n">
         <v>81</v>
       </c>
+      <c r="P9" s="2" t="n">
+        <f aca="false">N9 / $O$3</f>
+        <v>0.815964523281596</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <f aca="false">O9 / $O$3</f>
+        <v>0.17960088691796</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <f aca="false">N9 / N7</f>
+        <v>0.836363636363636</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <f aca="false">O9 / O7</f>
+        <v>0.375</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2403,6 +2458,22 @@
       <c r="O10" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="P10" s="2" t="n">
+        <f aca="false">N10 / $O$3</f>
+        <v>0.722838137472284</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <f aca="false">O10 / $O$3</f>
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <f aca="false">N10 / N8</f>
+        <v>0.799019607843137</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <f aca="false">O10 / O8</f>
+        <v>0.312056737588652</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2455,6 +2526,22 @@
       <c r="O11" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="P11" s="2" t="n">
+        <f aca="false">N11 / $O$3</f>
+        <v>0.600886917960089</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <f aca="false">O11 / $O$3</f>
+        <v>0.0554323725055432</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <f aca="false">N11 / N9</f>
+        <v>0.736413043478261</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <f aca="false">O11 / O9</f>
+        <v>0.308641975308642</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2507,6 +2594,22 @@
       <c r="O12" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="P12" s="2" t="n">
+        <f aca="false">N12 / $O$3</f>
+        <v>0.529933481152993</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <f aca="false">O12 / $O$3</f>
+        <v>0.0310421286031042</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <f aca="false">N12 / N10</f>
+        <v>0.733128834355828</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <f aca="false">O12 / O10</f>
+        <v>0.318181818181818</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2559,6 +2662,22 @@
       <c r="O13" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="P13" s="2" t="n">
+        <f aca="false">N13 / $O$3</f>
+        <v>0.445676274944568</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <f aca="false">O13 / $O$3</f>
+        <v>0.0177383592017738</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <f aca="false">N13 / N11</f>
+        <v>0.74169741697417</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <f aca="false">O13 / O11</f>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2611,6 +2730,22 @@
       <c r="O14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="P14" s="2" t="n">
+        <f aca="false">N14 / $O$3</f>
+        <v>0.381374722838137</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <f aca="false">O14 / $O$3</f>
+        <v>0.00221729490022173</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <f aca="false">N14 / N12</f>
+        <v>0.719665271966527</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <f aca="false">O14 / O12</f>
+        <v>0.0714285714285714</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2663,6 +2798,22 @@
       <c r="O15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="P15" s="2" t="n">
+        <f aca="false">N15 / $O$3</f>
+        <v>0.339246119733925</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <f aca="false">O15 / $O$3</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <f aca="false">N15 / N13</f>
+        <v>0.761194029850746</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <f aca="false">O15 / O13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -2712,6 +2863,16 @@
       <c r="N16" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="P16" s="2" t="n">
+        <f aca="false">N16 / $O$3</f>
+        <v>0.283813747228381</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="n">
+        <f aca="false">N16 / N14</f>
+        <v>0.744186046511628</v>
+      </c>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -2761,6 +2922,16 @@
       <c r="N17" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="P17" s="2" t="n">
+        <f aca="false">N17 / $O$3</f>
+        <v>0.241685144124169</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="n">
+        <f aca="false">N17 / N15</f>
+        <v>0.712418300653595</v>
+      </c>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -2810,6 +2981,16 @@
       <c r="N18" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="P18" s="2" t="n">
+        <f aca="false">N18 / $O$3</f>
+        <v>0.215077605321508</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="n">
+        <f aca="false">N18 / N16</f>
+        <v>0.7578125</v>
+      </c>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -2859,6 +3040,16 @@
       <c r="N19" s="0" t="n">
         <v>81</v>
       </c>
+      <c r="P19" s="2" t="n">
+        <f aca="false">N19 / $O$3</f>
+        <v>0.17960088691796</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="n">
+        <f aca="false">N19 / N17</f>
+        <v>0.743119266055046</v>
+      </c>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">

--- a/xauusd_4_hourly.xlsx
+++ b/xauusd_4_hourly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="208" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1808,7 +1808,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1987,8 +1986,8 @@
   </sheetPr>
   <dimension ref="A1:S452"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="S5" activeCellId="0" pane="topLeft" sqref="S5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -2299,6 +2298,7 @@
         <v>0.5</v>
       </c>
       <c r="N6" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M6)</f>
         <v>448</v>
       </c>
       <c r="O6" s="0" t="n">
@@ -2359,6 +2359,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M7)</f>
         <v>440</v>
       </c>
       <c r="O7" s="0" t="n">
@@ -2421,6 +2422,7 @@
         <v>1.5</v>
       </c>
       <c r="N8" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M8)</f>
         <v>408</v>
       </c>
       <c r="O8" s="0" t="n">
@@ -2489,6 +2491,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M9)</f>
         <v>368</v>
       </c>
       <c r="O9" s="0" t="n">
@@ -2557,6 +2560,7 @@
         <v>2.5</v>
       </c>
       <c r="N10" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M10)</f>
         <v>326</v>
       </c>
       <c r="O10" s="0" t="n">
@@ -2625,6 +2629,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M11)</f>
         <v>271</v>
       </c>
       <c r="O11" s="0" t="n">
@@ -2693,6 +2698,7 @@
         <v>3.5</v>
       </c>
       <c r="N12" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M12)</f>
         <v>239</v>
       </c>
       <c r="O12" s="0" t="n">
@@ -2761,6 +2767,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M13)</f>
         <v>201</v>
       </c>
       <c r="O13" s="0" t="n">
@@ -2829,6 +2836,7 @@
         <v>4.5</v>
       </c>
       <c r="N14" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M14)</f>
         <v>172</v>
       </c>
       <c r="O14" s="0" t="n">
@@ -2897,6 +2905,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M15)</f>
         <v>153</v>
       </c>
       <c r="O15" s="0" t="n">
@@ -2965,6 +2974,7 @@
         <v>5.5</v>
       </c>
       <c r="N16" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M16)</f>
         <v>128</v>
       </c>
       <c r="P16" s="4" t="n">
@@ -3024,6 +3034,7 @@
         <v>6</v>
       </c>
       <c r="N17" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M17)</f>
         <v>109</v>
       </c>
       <c r="P17" s="4" t="n">
@@ -3083,6 +3094,7 @@
         <v>6.5</v>
       </c>
       <c r="N18" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M18)</f>
         <v>97</v>
       </c>
       <c r="P18" s="4" t="n">
@@ -3142,6 +3154,7 @@
         <v>7</v>
       </c>
       <c r="N19" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M19)</f>
         <v>81</v>
       </c>
       <c r="P19" s="4" t="n">
@@ -3197,6 +3210,21 @@
         <f aca="false">IF(H20&lt;I20,H20, I20)</f>
         <v>1.06000000000017</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M20)</f>
+        <v>67</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <f aca="false">N20 / $O$3</f>
+        <v>0.148558758314856</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <f aca="false">N20 / N17</f>
+        <v>0.614678899082569</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="3" t="s">
@@ -3240,6 +3268,21 @@
         <f aca="false">IF(H21&lt;I21,H21, I21)</f>
         <v>0.759999999999991</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M21)</f>
+        <v>56</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <f aca="false">N21 / $O$3</f>
+        <v>0.124168514412417</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <f aca="false">N21 / N18</f>
+        <v>0.577319587628866</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="3" t="s">
@@ -3283,6 +3326,21 @@
         <f aca="false">IF(H22&lt;I22,H22, I22)</f>
         <v>1.56999999999994</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M22)</f>
+        <v>49</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <f aca="false">N22 / $O$3</f>
+        <v>0.108647450110865</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <f aca="false">N22 / N19</f>
+        <v>0.604938271604938</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="3" t="s">
@@ -3326,6 +3384,21 @@
         <f aca="false">IF(H23&lt;I23,H23, I23)</f>
         <v>0</v>
       </c>
+      <c r="M23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M23)</f>
+        <v>40</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <f aca="false">N23 / $O$3</f>
+        <v>0.0886917960088692</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <f aca="false">N23 / N20</f>
+        <v>0.597014925373134</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="3" t="s">
@@ -3369,6 +3442,21 @@
         <f aca="false">IF(H24&lt;I24,H24, I24)</f>
         <v>1.32999999999993</v>
       </c>
+      <c r="M24" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M24)</f>
+        <v>32</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <f aca="false">N24 / $O$3</f>
+        <v>0.0709534368070953</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <f aca="false">N24 / N21</f>
+        <v>0.571428571428571</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="3" t="s">
@@ -3412,6 +3500,21 @@
         <f aca="false">IF(H25&lt;I25,H25, I25)</f>
         <v>1.42000000000007</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M25)</f>
+        <v>27</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <f aca="false">N25 / $O$3</f>
+        <v>0.0598669623059867</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <f aca="false">N25 / N22</f>
+        <v>0.551020408163265</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="3" t="s">
@@ -3455,6 +3558,21 @@
         <f aca="false">IF(H26&lt;I26,H26, I26)</f>
         <v>0.0399999999999636</v>
       </c>
+      <c r="M26" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M26)</f>
+        <v>26</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <f aca="false">N26 / $O$3</f>
+        <v>0.057649667405765</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <f aca="false">N26 / N23</f>
+        <v>0.65</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="3" t="s">
@@ -3498,6 +3616,21 @@
         <f aca="false">IF(H27&lt;I27,H27, I27)</f>
         <v>1.37999999999988</v>
       </c>
+      <c r="M27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M27)</f>
+        <v>26</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <f aca="false">N27 / $O$3</f>
+        <v>0.057649667405765</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <f aca="false">N27 / N24</f>
+        <v>0.8125</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="3" t="s">
@@ -3541,6 +3674,21 @@
         <f aca="false">IF(H28&lt;I28,H28, I28)</f>
         <v>0</v>
       </c>
+      <c r="M28" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M28)</f>
+        <v>22</v>
+      </c>
+      <c r="P28" s="4" t="n">
+        <f aca="false">N28 / $O$3</f>
+        <v>0.0487804878048781</v>
+      </c>
+      <c r="R28" s="4" t="n">
+        <f aca="false">N28 / N25</f>
+        <v>0.814814814814815</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="3" t="s">
@@ -3583,6 +3731,21 @@
       <c r="L29" s="2" t="n">
         <f aca="false">IF(H29&lt;I29,H29, I29)</f>
         <v>0.779999999999973</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">COUNTIF($K$2:$K$452,"&gt;"&amp;M29)</f>
+        <v>19</v>
+      </c>
+      <c r="P29" s="4" t="n">
+        <f aca="false">N29 / $O$3</f>
+        <v>0.0421286031042129</v>
+      </c>
+      <c r="R29" s="4" t="n">
+        <f aca="false">N29 / N26</f>
+        <v>0.730769230769231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -21792,8 +21955,8 @@
   </sheetPr>
   <dimension ref="A1:P452"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A361" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="J417" activeCellId="0" pane="topLeft" sqref="J417"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
